--- a/biology/Médecine/Léon_Bence/Léon_Bence.xlsx
+++ b/biology/Médecine/Léon_Bence/Léon_Bence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bence</t>
+          <t>Léon_Bence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Bence, né le 18 janvier 1929 et mort le 13 mai 1987, est un médecin français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bence</t>
+          <t>Léon_Bence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauréat du Concours général de sciences naturelles lors de ses études secondaires à Saint-Omer (Pas-de-Calais), il entre ensuite à la Faculté de médecine de Lille. Après sa thèse de doctorat soutenue en 1955, ses origines paysannes et son tempérament d'homme de terrain lui font choisir une carrière de médecin de campagne.
 Exerçant à Lumbres (Pas-de-Calais) pendant plus de vingt ans, il n'en demeure pas moins un perpétuel étudiant. Diplômé de médecine agricole en 1974 (Faculté de médecine de Tours), ses travaux lui valent d'être primé par la Faculté de médecine de Strasbourg en 1978.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Bence</t>
+          <t>Léon_Bence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aspects nouveaux de la soft laserthérapie (Congrès mondial d'Acupuncture - Sofia - 1983)
 Essai de thérapeutique antiasthmatique par irradiation laser des ganglions stellaires (Bence et Dussert)
